--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_1</t>
+    <t>modifier_courier_fx_ambient_1</t>
   </si>
   <si>
     <t>courier_gold_sec_1</t>
@@ -153,7 +153,7 @@
     <t>models/courier/beetlejaws/mesh/beetlejaws.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_3</t>
+    <t>modifier_courier_fx_ambient_3</t>
   </si>
   <si>
     <t>courier_gold_sec_3</t>
@@ -174,7 +174,7 @@
     <t>models/courier/donkey_ti7/donkey_ti7.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_4</t>
+    <t>modifier_courier_fx_ambient_4</t>
   </si>
   <si>
     <t>courier_card_2</t>
@@ -192,7 +192,7 @@
     <t>models/items/courier/axolotl/axolotl.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_5</t>
+    <t>modifier_courier_fx_ambient_5</t>
   </si>
   <si>
     <t>courier_star_up_3</t>
@@ -210,7 +210,7 @@
     <t>models/courier/baby_winter_wyvern/baby_winter_wyvern.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_6</t>
+    <t>modifier_courier_fx_ambient_6</t>
   </si>
   <si>
     <t>courier_population_3</t>
@@ -228,7 +228,7 @@
     <t>models/items/courier/courier_ti9/courier_ti9_lvl7/courier_ti9_lvl7.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_7</t>
+    <t>modifier_courier_fx_ambient_7</t>
   </si>
   <si>
     <t>courier_tower_unique_3</t>
@@ -246,7 +246,7 @@
     <t>models/items/courier/devourling/devourling.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_8</t>
+    <t>modifier_courier_fx_ambient_8</t>
   </si>
   <si>
     <t>courier_weapon_master_3</t>
@@ -264,7 +264,7 @@
     <t>models/courier/doom_demihero_courier/doom_demihero_courier.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_9</t>
+    <t>modifier_courier_fx_ambient_9</t>
   </si>
   <si>
     <t>courier_random_item_3</t>
@@ -282,7 +282,7 @@
     <t>models/courier/flopjaw/flopjaw.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_10</t>
+    <t>modifier_courier_fx_ambient_10</t>
   </si>
   <si>
     <t>courier_card_3</t>
@@ -300,7 +300,7 @@
     <t>models/courier/seekling/seekling.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_11</t>
+    <t>modifier_courier_fx_ambient_11</t>
   </si>
   <si>
     <t>courier_more_card_3</t>
@@ -318,7 +318,7 @@
     <t>models/courier/venoling/venoling.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_12</t>
+    <t>modifier_courier_fx_ambient_12</t>
   </si>
   <si>
     <t>courier_wood_sec_3</t>
@@ -336,7 +336,7 @@
     <t>models/items/courier/amaterasu/amaterasu.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_13</t>
+    <t>modifier_courier_fx_ambient_13</t>
   </si>
   <si>
     <t>courier_more_card_2</t>
@@ -351,7 +351,7 @@
     <t>Crimson Axolotl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_14</t>
+    <t>modifier_courier_fx_ambient_14</t>
   </si>
   <si>
     <t>courier_star_up_2</t>
@@ -366,7 +366,7 @@
     <t>Fire Wyvern Hatchling</t>
   </si>
   <si>
-    <t>courier_fx_ambient_15</t>
+    <t>modifier_courier_fx_ambient_15</t>
   </si>
   <si>
     <t>courier_population_2</t>
@@ -381,7 +381,7 @@
     <t>Frost Wyvern Hatchling</t>
   </si>
   <si>
-    <t>courier_fx_ambient_16</t>
+    <t>modifier_courier_fx_ambient_16</t>
   </si>
   <si>
     <t>courier_weapon_master_2</t>
@@ -414,7 +414,7 @@
     <t>models/courier/frull/frull_courier.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_18</t>
+    <t>modifier_courier_fx_ambient_18</t>
   </si>
   <si>
     <t>courier_tower_unique_2</t>
@@ -432,7 +432,7 @@
     <t>models/items/courier/hermit_crab/hermit_crab_aegis.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_19</t>
+    <t>modifier_courier_fx_ambient_19</t>
   </si>
   <si>
     <t>courier_gold_sec_2</t>
@@ -450,7 +450,7 @@
     <t>models/items/courier/little_sappling_style1/little_sappling_style1.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_20</t>
+    <t>modifier_courier_fx_ambient_20</t>
   </si>
   <si>
     <t>courier_wood_sec_2</t>
@@ -468,7 +468,7 @@
     <t>models/items/courier/nexon_turtle_15_red/nexon_turtle_15_red.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_21</t>
+    <t>modifier_courier_fx_ambient_21</t>
   </si>
   <si>
     <t>courier_artifact_select</t>
@@ -516,7 +516,7 @@
     <t>models/items/courier/baekho/baekho.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_24</t>
+    <t>modifier_courier_fx_ambient_24</t>
   </si>
   <si>
     <t>courier_tower_unique_1</t>
@@ -609,7 +609,7 @@
     <t>models/items/courier/krobeling_gold/krobeling_gold.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_30</t>
+    <t>modifier_courier_fx_ambient_30</t>
   </si>
   <si>
     <t>courier_chest_killer_3</t>
@@ -627,7 +627,7 @@
     <t>models/courier/huntling/huntling.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_31</t>
+    <t>modifier_courier_fx_ambient_31</t>
   </si>
   <si>
     <t>courier_shop_discount_3</t>
@@ -672,7 +672,7 @@
     <t>models/courier/ram/ram.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_32</t>
+    <t>modifier_courier_fx_ambient_32</t>
   </si>
   <si>
     <t>courier_artifact_3</t>
@@ -687,7 +687,7 @@
     <t>Jade Horn</t>
   </si>
   <si>
-    <t>courier_fx_ambient_33</t>
+    <t>modifier_courier_fx_ambient_33</t>
   </si>
   <si>
     <t>courier_artifact_2</t>
@@ -702,7 +702,7 @@
     <t>Red Horn</t>
   </si>
   <si>
-    <t>courier_fx_ambient_34</t>
+    <t>modifier_courier_fx_ambient_34</t>
   </si>
   <si>
     <t>courier_artifact_1</t>
@@ -720,7 +720,7 @@
     <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant_lvl7/courier_ti10_radiant_lvl7.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_37</t>
+    <t>modifier_courier_fx_ambient_37</t>
   </si>
   <si>
     <t>courier_upgrade_item_3</t>
@@ -738,7 +738,7 @@
     <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant_lvl6/courier_ti10_radiant_lvl6.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_38</t>
+    <t>modifier_courier_fx_ambient_38</t>
   </si>
   <si>
     <t>courier_upgrade_item_2</t>
@@ -756,7 +756,7 @@
     <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_39</t>
+    <t>modifier_courier_fx_ambient_39</t>
   </si>
   <si>
     <t>courier_upgrade_item_1</t>
@@ -789,7 +789,7 @@
     <t>models/items/courier/mole_messenger/mole_messenger_lvl6.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_41</t>
+    <t>modifier_courier_fx_ambient_41</t>
   </si>
   <si>
     <t>courier_all_stat_2</t>
@@ -804,7 +804,7 @@
     <t>models/items/courier/mole_messenger/mole_messenger.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_42</t>
+    <t>modifier_courier_fx_ambient_42</t>
   </si>
   <si>
     <t>courier_all_stat_1</t>
@@ -822,7 +822,7 @@
     <t>models/items/courier/mole_messenger/mole_messenger_lvl7.vmdl</t>
   </si>
   <si>
-    <t>courier_fx_ambient_43</t>
+    <t>modifier_courier_fx_ambient_43</t>
   </si>
   <si>
     <t>courier_all_stat_3</t>
@@ -1923,25 +1923,25 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="15" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.3727272727273" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.37272727272727" style="5" customWidth="1"/>
     <col min="7" max="7" width="75" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="5" customWidth="1"/>
     <col min="9" max="11" width="19.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="10" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.2545454545455" style="10" customWidth="1"/>
+    <col min="13" max="13" width="36.5454545454545" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.0909090909091" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.6272727272727" style="3" customWidth="1"/>
     <col min="16" max="16317" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2039,7 +2039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:15">
+    <row r="3" s="4" customFormat="1" ht="15" spans="1:15">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="4" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="5" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" ht="14.25" spans="1:15">
+    <row r="6" ht="15" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" ht="14.25" spans="1:15">
+    <row r="7" ht="15" spans="1:15">
       <c r="A7" s="11" t="s">
         <v>54</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" ht="14.25" spans="1:15">
+    <row r="8" ht="15" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>60</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="9" s="3" customFormat="1" ht="30" spans="1:15">
       <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="10" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>72</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="11" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>78</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="12" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>84</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" ht="14.25" spans="1:15">
+    <row r="13" ht="15" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>90</v>
       </c>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" ht="14.25" spans="1:15">
+    <row r="14" ht="15" spans="1:15">
       <c r="A14" s="11" t="s">
         <v>96</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" ht="14.25" spans="1:15">
+    <row r="15" ht="15" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>102</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" ht="14.25" spans="1:15">
+    <row r="16" ht="15" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>108</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" ht="14.25" spans="1:15">
+    <row r="17" ht="15" spans="1:15">
       <c r="A17" s="11" t="s">
         <v>113</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" ht="14.25" spans="1:15">
+    <row r="18" ht="15" spans="1:15">
       <c r="A18" s="11" t="s">
         <v>118</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" ht="14.25" spans="1:15">
+    <row r="19" ht="15" spans="1:15">
       <c r="A19" s="11" t="s">
         <v>123</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" ht="14.25" spans="1:15">
+    <row r="20" ht="15" spans="1:15">
       <c r="A20" s="11" t="s">
         <v>128</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" ht="14.25" spans="1:15">
+    <row r="21" ht="15" spans="1:15">
       <c r="A21" s="11" t="s">
         <v>134</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" ht="14.25" spans="1:15">
+    <row r="22" ht="30" spans="1:15">
       <c r="A22" s="11" t="s">
         <v>140</v>
       </c>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" ht="14.25" spans="1:15">
+    <row r="23" ht="15" spans="1:15">
       <c r="A23" s="11" t="s">
         <v>146</v>
       </c>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="24" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A24" s="11" t="s">
         <v>152</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="25" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A25" s="11" t="s">
         <v>157</v>
       </c>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="26" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A26" s="11" t="s">
         <v>162</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="27" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A27" s="11" t="s">
         <v>168</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="28" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A28" s="11" t="s">
         <v>173</v>
       </c>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="29" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A29" s="11" t="s">
         <v>178</v>
       </c>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="30" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A30" s="11" t="s">
         <v>183</v>
       </c>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="31" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A31" s="11" t="s">
         <v>188</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="32" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A32" s="11" t="s">
         <v>193</v>
       </c>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" ht="14.25" spans="1:15">
+    <row r="33" ht="15" spans="1:15">
       <c r="A33" s="11" t="s">
         <v>199</v>
       </c>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" ht="14.25" spans="1:15">
+    <row r="34" ht="15" spans="1:15">
       <c r="A34" s="11" t="s">
         <v>205</v>
       </c>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" ht="14.25" spans="1:15">
+    <row r="35" ht="15" spans="1:15">
       <c r="A35" s="11" t="s">
         <v>209</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" ht="14.25" spans="1:15">
+    <row r="36" ht="15" spans="1:15">
       <c r="A36" s="11" t="s">
         <v>214</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" ht="14.25" spans="1:15">
+    <row r="37" ht="15" spans="1:15">
       <c r="A37" s="11" t="s">
         <v>220</v>
       </c>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" ht="14.25" spans="1:15">
+    <row r="38" ht="15" spans="1:15">
       <c r="A38" s="11" t="s">
         <v>225</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" ht="28.5" spans="1:15">
+    <row r="39" ht="30" spans="1:15">
       <c r="A39" s="11" t="s">
         <v>230</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" ht="28.5" spans="1:15">
+    <row r="40" ht="30" spans="1:15">
       <c r="A40" s="11" t="s">
         <v>236</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" ht="14.25" spans="1:15">
+    <row r="41" ht="15" spans="1:15">
       <c r="A41" s="11" t="s">
         <v>242</v>
       </c>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" ht="14.25" spans="1:15">
+    <row r="42" ht="15" spans="1:15">
       <c r="A42" s="11" t="s">
         <v>248</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" ht="14.25" spans="1:15">
+    <row r="43" ht="15" spans="1:15">
       <c r="A43" s="11" t="s">
         <v>253</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" ht="14.25" spans="1:15">
+    <row r="44" ht="15" spans="1:15">
       <c r="A44" s="11" t="s">
         <v>259</v>
       </c>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" ht="14.25" spans="1:15">
+    <row r="45" ht="15" spans="1:15">
       <c r="A45" s="11" t="s">
         <v>264</v>
       </c>
@@ -3890,21 +3890,21 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.87272727272727" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7545454545455" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.3727272727273" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7545454545455" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6272727272727" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.6272727272727" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.2545454545455" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.1272727272727" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.3727272727273" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4106,7 +4106,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="238">
   <si>
     <t>主键</t>
   </si>
@@ -135,9 +135,6 @@
     <t>models/items/courier/defense4_radiant/defense4_radiant.vmdl</t>
   </si>
   <si>
-    <t>courier_kill_1</t>
-  </si>
-  <si>
     <t>courier_3</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>modifier_courier_fx_ambient_3</t>
   </si>
   <si>
-    <t>courier_gold_sec_3</t>
-  </si>
-  <si>
     <t>courier_4</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>modifier_courier_fx_ambient_4</t>
   </si>
   <si>
-    <t>courier_card_2</t>
-  </si>
-  <si>
     <t>courier_5</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>modifier_courier_fx_ambient_5</t>
   </si>
   <si>
-    <t>courier_star_up_3</t>
-  </si>
-  <si>
     <t>courier_6</t>
   </si>
   <si>
@@ -213,9 +201,6 @@
     <t>modifier_courier_fx_ambient_6</t>
   </si>
   <si>
-    <t>courier_population_3</t>
-  </si>
-  <si>
     <t>courier_7</t>
   </si>
   <si>
@@ -231,9 +216,6 @@
     <t>modifier_courier_fx_ambient_7</t>
   </si>
   <si>
-    <t>courier_tower_unique_3</t>
-  </si>
-  <si>
     <t>courier_8</t>
   </si>
   <si>
@@ -249,9 +231,6 @@
     <t>modifier_courier_fx_ambient_8</t>
   </si>
   <si>
-    <t>courier_weapon_master_3</t>
-  </si>
-  <si>
     <t>courier_9</t>
   </si>
   <si>
@@ -267,9 +246,6 @@
     <t>modifier_courier_fx_ambient_9</t>
   </si>
   <si>
-    <t>courier_random_item_3</t>
-  </si>
-  <si>
     <t>courier_10</t>
   </si>
   <si>
@@ -285,9 +261,6 @@
     <t>modifier_courier_fx_ambient_10</t>
   </si>
   <si>
-    <t>courier_card_3</t>
-  </si>
-  <si>
     <t>courier_11</t>
   </si>
   <si>
@@ -303,9 +276,6 @@
     <t>modifier_courier_fx_ambient_11</t>
   </si>
   <si>
-    <t>courier_more_card_3</t>
-  </si>
-  <si>
     <t>courier_12</t>
   </si>
   <si>
@@ -321,9 +291,6 @@
     <t>modifier_courier_fx_ambient_12</t>
   </si>
   <si>
-    <t>courier_wood_sec_3</t>
-  </si>
-  <si>
     <t>courier_13</t>
   </si>
   <si>
@@ -339,9 +306,6 @@
     <t>modifier_courier_fx_ambient_13</t>
   </si>
   <si>
-    <t>courier_more_card_2</t>
-  </si>
-  <si>
     <t>courier_14</t>
   </si>
   <si>
@@ -354,9 +318,6 @@
     <t>modifier_courier_fx_ambient_14</t>
   </si>
   <si>
-    <t>courier_star_up_2</t>
-  </si>
-  <si>
     <t>courier_15</t>
   </si>
   <si>
@@ -369,9 +330,6 @@
     <t>modifier_courier_fx_ambient_15</t>
   </si>
   <si>
-    <t>courier_population_2</t>
-  </si>
-  <si>
     <t>courier_16</t>
   </si>
   <si>
@@ -384,9 +342,6 @@
     <t>modifier_courier_fx_ambient_16</t>
   </si>
   <si>
-    <t>courier_weapon_master_2</t>
-  </si>
-  <si>
     <t>courier_17</t>
   </si>
   <si>
@@ -399,9 +354,6 @@
     <t>models/items/courier/fei_lian_blue/fei_lian_blue.vmdl</t>
   </si>
   <si>
-    <t>courier_random_item_2</t>
-  </si>
-  <si>
     <t>courier_18</t>
   </si>
   <si>
@@ -417,9 +369,6 @@
     <t>modifier_courier_fx_ambient_18</t>
   </si>
   <si>
-    <t>courier_tower_unique_2</t>
-  </si>
-  <si>
     <t>courier_19</t>
   </si>
   <si>
@@ -435,9 +384,6 @@
     <t>modifier_courier_fx_ambient_19</t>
   </si>
   <si>
-    <t>courier_gold_sec_2</t>
-  </si>
-  <si>
     <t>courier_20</t>
   </si>
   <si>
@@ -453,9 +399,6 @@
     <t>modifier_courier_fx_ambient_20</t>
   </si>
   <si>
-    <t>courier_wood_sec_2</t>
-  </si>
-  <si>
     <t>courier_21</t>
   </si>
   <si>
@@ -471,9 +414,6 @@
     <t>modifier_courier_fx_ambient_21</t>
   </si>
   <si>
-    <t>courier_artifact_select</t>
-  </si>
-  <si>
     <t>courier_22</t>
   </si>
   <si>
@@ -486,9 +426,6 @@
     <t>models/items/courier/atrophic_skitterwing/atrophic_skitterwing.vmdl</t>
   </si>
   <si>
-    <t>courier_star_up_1</t>
-  </si>
-  <si>
     <t>courier_23</t>
   </si>
   <si>
@@ -501,9 +438,6 @@
     <t>models/items/courier/azuremircourierfinal/azuremircourierfinal.vmdl</t>
   </si>
   <si>
-    <t>courier_population_1</t>
-  </si>
-  <si>
     <t>courier_24</t>
   </si>
   <si>
@@ -519,9 +453,6 @@
     <t>modifier_courier_fx_ambient_24</t>
   </si>
   <si>
-    <t>courier_tower_unique_1</t>
-  </si>
-  <si>
     <t>courier_25</t>
   </si>
   <si>
@@ -534,9 +465,6 @@
     <t>models/items/courier/bajie_pig/bajie_pig.vmdl</t>
   </si>
   <si>
-    <t>courier_weapon_master_1</t>
-  </si>
-  <si>
     <t>courier_26</t>
   </si>
   <si>
@@ -549,9 +477,6 @@
     <t>models/items/courier/beaverknight_s2/beaverknight_s2.vmdl</t>
   </si>
   <si>
-    <t>courier_random_item_1</t>
-  </si>
-  <si>
     <t>courier_27</t>
   </si>
   <si>
@@ -564,9 +489,6 @@
     <t>models/items/courier/blotto_and_stick/blotto.vmdl</t>
   </si>
   <si>
-    <t>courier_card_1</t>
-  </si>
-  <si>
     <t>courier_28</t>
   </si>
   <si>
@@ -579,9 +501,6 @@
     <t>models/items/courier/boris_baumhauer/boris_baumhauer.vmdl</t>
   </si>
   <si>
-    <t>courier_more_card_1</t>
-  </si>
-  <si>
     <t>courier_29</t>
   </si>
   <si>
@@ -594,9 +513,6 @@
     <t>models/items/courier/coco_the_courageous/coco_the_courageous.vmdl</t>
   </si>
   <si>
-    <t>courier_wood_sec_1</t>
-  </si>
-  <si>
     <t>courier_30</t>
   </si>
   <si>
@@ -612,9 +528,6 @@
     <t>modifier_courier_fx_ambient_30</t>
   </si>
   <si>
-    <t>courier_chest_killer_3</t>
-  </si>
-  <si>
     <t>courier_31</t>
   </si>
   <si>
@@ -630,9 +543,6 @@
     <t>modifier_courier_fx_ambient_31</t>
   </si>
   <si>
-    <t>courier_shop_discount_3</t>
-  </si>
-  <si>
     <t>courier_32</t>
   </si>
   <si>
@@ -642,9 +552,6 @@
     <t>Fashion Huntling</t>
   </si>
   <si>
-    <t>courier_shop_discount_2</t>
-  </si>
-  <si>
     <t>courier_33</t>
   </si>
   <si>
@@ -657,9 +564,6 @@
     <t>models/items/courier/royal_griffin_cub/royal_griffin_cub.vmdl</t>
   </si>
   <si>
-    <t>courier_shop_discount_1</t>
-  </si>
-  <si>
     <t>courier_34</t>
   </si>
   <si>
@@ -675,9 +579,6 @@
     <t>modifier_courier_fx_ambient_32</t>
   </si>
   <si>
-    <t>courier_artifact_3</t>
-  </si>
-  <si>
     <t>courier_35</t>
   </si>
   <si>
@@ -690,9 +591,6 @@
     <t>modifier_courier_fx_ambient_33</t>
   </si>
   <si>
-    <t>courier_artifact_2</t>
-  </si>
-  <si>
     <t>courier_36</t>
   </si>
   <si>
@@ -705,9 +603,6 @@
     <t>modifier_courier_fx_ambient_34</t>
   </si>
   <si>
-    <t>courier_artifact_1</t>
-  </si>
-  <si>
     <t>courier_37</t>
   </si>
   <si>
@@ -723,9 +618,6 @@
     <t>modifier_courier_fx_ambient_37</t>
   </si>
   <si>
-    <t>courier_upgrade_item_3</t>
-  </si>
-  <si>
     <t>courier_38</t>
   </si>
   <si>
@@ -741,9 +633,6 @@
     <t>modifier_courier_fx_ambient_38</t>
   </si>
   <si>
-    <t>courier_upgrade_item_2</t>
-  </si>
-  <si>
     <t>courier_39</t>
   </si>
   <si>
@@ -759,9 +648,6 @@
     <t>modifier_courier_fx_ambient_39</t>
   </si>
   <si>
-    <t>courier_upgrade_item_1</t>
-  </si>
-  <si>
     <t>courier_40</t>
   </si>
   <si>
@@ -774,9 +660,6 @@
     <t>models/courier/greevil/gold_greevil.vmdl</t>
   </si>
   <si>
-    <t>courier_max_gold_3</t>
-  </si>
-  <si>
     <t>courier_41</t>
   </si>
   <si>
@@ -792,9 +675,6 @@
     <t>modifier_courier_fx_ambient_41</t>
   </si>
   <si>
-    <t>courier_all_stat_2</t>
-  </si>
-  <si>
     <t>courier_42</t>
   </si>
   <si>
@@ -807,9 +687,6 @@
     <t>modifier_courier_fx_ambient_42</t>
   </si>
   <si>
-    <t>courier_all_stat_1</t>
-  </si>
-  <si>
     <t>courier_43</t>
   </si>
   <si>
@@ -823,9 +700,6 @@
   </si>
   <si>
     <t>modifier_courier_fx_ambient_43</t>
-  </si>
-  <si>
-    <t>courier_all_stat_3</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1923,25 +1797,25 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="15" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.3727272727273" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.37272727272727" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="5" customWidth="1"/>
     <col min="7" max="7" width="75" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="5" customWidth="1"/>
     <col min="9" max="11" width="19.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.2545454545455" style="10" customWidth="1"/>
-    <col min="13" max="13" width="36.5454545454545" style="3" customWidth="1"/>
-    <col min="14" max="14" width="27.0909090909091" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.6272727272727" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.2583333333333" style="10" customWidth="1"/>
+    <col min="13" max="13" width="36.5416666666667" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.0916666666667" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="3" customWidth="1"/>
     <col min="16" max="16317" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2039,7 +1913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="15" spans="1:15">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:15">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -2079,7 +1953,7 @@
       </c>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="4" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -2113,32 +1987,32 @@
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603003</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -2152,35 +2026,35 @@
         <v>1</v>
       </c>
       <c r="M5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:15">
+      <c r="A6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" ht="15" spans="1:15">
-      <c r="A6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602004</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11">
@@ -2192,35 +2066,35 @@
         <v>1</v>
       </c>
       <c r="M6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:15">
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" ht="15" spans="1:15">
-      <c r="A7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603005</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7" s="11">
         <v>3</v>
@@ -2236,35 +2110,35 @@
         <v>1</v>
       </c>
       <c r="M7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:15">
+      <c r="A8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" ht="15" spans="1:15">
-      <c r="A8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603006</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H8" s="11">
         <v>2</v>
@@ -2280,35 +2154,35 @@
         <v>1</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="30" spans="1:15">
+    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A9" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603007</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11">
@@ -2322,35 +2196,35 @@
         <v>1</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A10" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603008</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -2366,35 +2240,35 @@
         <v>1</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A11" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603009</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -2410,35 +2284,35 @@
         <v>1</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A12" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603010</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -2454,35 +2328,35 @@
         <v>1</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" ht="15" spans="1:15">
+    <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603011</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H13" s="11">
         <v>1</v>
@@ -2498,35 +2372,35 @@
         <v>1</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" ht="15" spans="1:15">
+    <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>603012</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H14" s="11">
         <v>1</v>
@@ -2542,35 +2416,35 @@
         <v>1</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" ht="15" spans="1:15">
+    <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602013</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11">
@@ -2582,35 +2456,35 @@
         <v>1</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" ht="15" spans="1:15">
+    <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602014</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" s="11">
         <v>2</v>
@@ -2626,35 +2500,35 @@
         <v>1</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" ht="15" spans="1:15">
+    <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602015</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H17" s="11">
         <v>1</v>
@@ -2670,35 +2544,35 @@
         <v>1</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" ht="15" spans="1:15">
+    <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602016</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11">
@@ -2710,35 +2584,35 @@
         <v>1</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" ht="15" spans="1:15">
+    <row r="19" ht="14.25" spans="1:15">
       <c r="A19" s="11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602017</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H19" s="11">
         <v>1</v>
@@ -2754,33 +2628,33 @@
         <v>1</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="12" t="s">
-        <v>127</v>
+      <c r="N19" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" ht="15" spans="1:15">
+    <row r="20" ht="14.25" spans="1:15">
       <c r="A20" s="11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602018</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11">
@@ -2792,35 +2666,35 @@
         <v>1</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" ht="15" spans="1:15">
+    <row r="21" ht="14.25" spans="1:15">
       <c r="A21" s="11" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602019</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11">
@@ -2834,35 +2708,35 @@
         <v>1</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>139</v>
+        <v>121</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" ht="30" spans="1:15">
+    <row r="22" ht="14.25" spans="1:15">
       <c r="A22" s="11" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602020</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H22" s="11">
         <v>3</v>
@@ -2878,35 +2752,35 @@
         <v>1</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>145</v>
+        <v>126</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" ht="15" spans="1:15">
+    <row r="23" ht="14.25" spans="1:15">
       <c r="A23" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>602021</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11">
@@ -2920,25 +2794,25 @@
         <v>1</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>151</v>
+        <v>131</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="24" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A24" s="11" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2948,7 +2822,7 @@
         <v>31</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11">
@@ -2960,23 +2834,23 @@
         <v>1</v>
       </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
-        <v>156</v>
+      <c r="N24" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="25" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A25" s="11" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2986,7 +2860,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11">
@@ -3000,23 +2874,23 @@
         <v>1</v>
       </c>
       <c r="M25" s="12"/>
-      <c r="N25" s="12" t="s">
-        <v>161</v>
+      <c r="N25" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="26" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A26" s="11" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3026,7 +2900,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11">
@@ -3038,25 +2912,25 @@
         <v>1</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>167</v>
+        <v>144</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="27" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A27" s="11" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3066,7 +2940,7 @@
         <v>31</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="H27" s="11">
         <v>1</v>
@@ -3080,23 +2954,23 @@
         <v>1</v>
       </c>
       <c r="M27" s="12"/>
-      <c r="N27" s="12" t="s">
-        <v>172</v>
+      <c r="N27" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A28" s="11" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3106,7 +2980,7 @@
         <v>31</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11">
@@ -3120,23 +2994,23 @@
         <v>1</v>
       </c>
       <c r="M28" s="12"/>
-      <c r="N28" s="12" t="s">
-        <v>177</v>
+      <c r="N28" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A29" s="11" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3146,7 +3020,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11">
@@ -3158,23 +3032,23 @@
         <v>1</v>
       </c>
       <c r="M29" s="12"/>
-      <c r="N29" s="12" t="s">
-        <v>182</v>
+      <c r="N29" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="30" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A30" s="11" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3184,7 +3058,7 @@
         <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11">
@@ -3196,23 +3070,23 @@
         <v>1</v>
       </c>
       <c r="M30" s="12"/>
-      <c r="N30" s="12" t="s">
-        <v>187</v>
+      <c r="N30" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="31" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A31" s="11" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="E31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3222,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11">
@@ -3234,32 +3108,32 @@
         <v>1</v>
       </c>
       <c r="M31" s="12"/>
-      <c r="N31" s="12" t="s">
-        <v>192</v>
+      <c r="N31" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" s="3" customFormat="1" ht="15" spans="1:15">
+    <row r="32" s="3" customFormat="1" ht="14.25" spans="1:15">
       <c r="A32" s="11" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E32" s="11">
         <v>603013</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="H32" s="11">
         <v>2</v>
@@ -3273,34 +3147,34 @@
         <v>1</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>198</v>
+        <v>169</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" ht="15" spans="1:15">
+    <row r="33" ht="14.25" spans="1:15">
       <c r="A33" s="11" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="E33" s="11">
         <v>603014</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="H33" s="11">
         <v>1</v>
@@ -3314,34 +3188,34 @@
         <v>1</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>204</v>
+        <v>174</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" ht="15" spans="1:15">
+    <row r="34" ht="14.25" spans="1:15">
       <c r="A34" s="11" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E34" s="11">
         <v>602001</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
@@ -3355,23 +3229,23 @@
         <v>1</v>
       </c>
       <c r="M34" s="12"/>
-      <c r="N34" s="12" t="s">
-        <v>208</v>
+      <c r="N34" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" ht="15" spans="1:15">
+    <row r="35" ht="14.25" spans="1:15">
       <c r="A35" s="11" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="E35" s="11">
         <v>601003</v>
@@ -3380,7 +3254,7 @@
         <v>31</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="12">
@@ -3392,32 +3266,32 @@
         <v>1</v>
       </c>
       <c r="M35" s="12"/>
-      <c r="N35" s="12" t="s">
-        <v>213</v>
+      <c r="N35" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" ht="15" spans="1:15">
+    <row r="36" ht="14.25" spans="1:15">
       <c r="A36" s="11" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E36" s="11">
         <v>603015</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H36" s="11">
         <v>2</v>
@@ -3431,34 +3305,34 @@
         <v>1</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>219</v>
+        <v>186</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" ht="15" spans="1:15">
+    <row r="37" ht="14.25" spans="1:15">
       <c r="A37" s="11" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="E37" s="11">
         <v>602002</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H37" s="11">
         <v>1</v>
@@ -3472,25 +3346,25 @@
         <v>1</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>224</v>
+        <v>190</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" ht="15" spans="1:15">
+    <row r="38" ht="14.25" spans="1:15">
       <c r="A38" s="11" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="E38" s="11">
         <v>601004</v>
@@ -3499,7 +3373,7 @@
         <v>31</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
@@ -3513,34 +3387,34 @@
         <v>1</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>229</v>
+        <v>194</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" ht="30" spans="1:15">
+    <row r="39" ht="28.5" spans="1:15">
       <c r="A39" s="11" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E39" s="11">
         <v>603016</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="H39" s="11">
         <v>0</v>
@@ -3556,34 +3430,34 @@
         <v>1</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>235</v>
+        <v>199</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" ht="30" spans="1:15">
+    <row r="40" ht="28.5" spans="1:15">
       <c r="A40" s="11" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="E40" s="11">
         <v>602003</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="H40" s="11">
         <v>0</v>
@@ -3599,25 +3473,25 @@
         <v>1</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>241</v>
+        <v>204</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" ht="15" spans="1:15">
+    <row r="41" ht="14.25" spans="1:15">
       <c r="A41" s="11" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="E41" s="11">
         <v>601005</v>
@@ -3626,7 +3500,7 @@
         <v>31</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
@@ -3640,34 +3514,34 @@
         <v>1</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>247</v>
+        <v>209</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" ht="15" spans="1:15">
+    <row r="42" ht="14.25" spans="1:15">
       <c r="A42" s="11" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E42" s="11">
         <v>603017</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
@@ -3681,32 +3555,32 @@
         <v>1</v>
       </c>
       <c r="M42" s="12"/>
-      <c r="N42" s="12" t="s">
-        <v>252</v>
+      <c r="N42" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" ht="15" spans="1:15">
+    <row r="43" ht="14.25" spans="1:15">
       <c r="A43" s="11" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="E43" s="11">
         <v>602005</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
@@ -3722,25 +3596,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>258</v>
+        <v>218</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" ht="15" spans="1:15">
+    <row r="44" ht="14.25" spans="1:15">
       <c r="A44" s="11" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="E44" s="11">
         <v>601006</v>
@@ -3749,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
@@ -3765,34 +3639,34 @@
         <v>1</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>263</v>
+        <v>222</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" ht="15" spans="1:15">
+    <row r="45" ht="14.25" spans="1:15">
       <c r="A45" s="11" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="E45" s="11">
         <v>603018</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="H45" s="11">
         <v>6</v>
@@ -3808,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>269</v>
+        <v>227</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O45" s="12"/>
     </row>
@@ -3890,30 +3764,30 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.87272727272727" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.7545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.3727272727273" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7545454545455" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7583333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.37272727272727" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6272727272727" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.37272727272727" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.6272727272727" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.37272727272727" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.2545454545455" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.1272727272727" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.3727272727273" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.2583333333333" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3954,10 +3828,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -3998,57 +3872,57 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
@@ -4106,7 +3980,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>modifier_courier_fx_ambient_1</t>
   </si>
   <si>
-    <t>courier_gold_sec_1</t>
+    <t>courier_extra_gold_sec_1</t>
   </si>
   <si>
     <t>courier_2</t>
@@ -1797,25 +1797,25 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N45"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="15" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.3727272727273" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.37272727272727" style="5" customWidth="1"/>
     <col min="7" max="7" width="75" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="5" customWidth="1"/>
     <col min="9" max="11" width="19.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.2583333333333" style="10" customWidth="1"/>
-    <col min="13" max="13" width="36.5416666666667" style="3" customWidth="1"/>
-    <col min="14" max="14" width="27.0916666666667" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.2545454545455" style="10" customWidth="1"/>
+    <col min="13" max="13" width="36.5454545454545" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.0909090909091" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.6272727272727" style="3" customWidth="1"/>
     <col min="16" max="16317" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1913,7 +1913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:15">
+    <row r="3" s="4" customFormat="1" ht="15" spans="1:15">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="4" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="5" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" ht="14.25" spans="1:15">
+    <row r="6" ht="15" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>45</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" ht="14.25" spans="1:15">
+    <row r="7" ht="15" spans="1:15">
       <c r="A7" s="11" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" ht="14.25" spans="1:15">
+    <row r="8" ht="15" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="9" s="3" customFormat="1" ht="30" spans="1:15">
       <c r="A9" s="11" t="s">
         <v>61</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="10" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>66</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="11" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>71</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="12" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>76</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" ht="14.25" spans="1:15">
+    <row r="13" ht="15" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>81</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" ht="14.25" spans="1:15">
+    <row r="14" ht="15" spans="1:15">
       <c r="A14" s="11" t="s">
         <v>86</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" ht="14.25" spans="1:15">
+    <row r="15" ht="15" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>91</v>
       </c>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" ht="14.25" spans="1:15">
+    <row r="16" ht="15" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>96</v>
       </c>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" ht="14.25" spans="1:15">
+    <row r="17" ht="15" spans="1:15">
       <c r="A17" s="11" t="s">
         <v>100</v>
       </c>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" ht="14.25" spans="1:15">
+    <row r="18" ht="15" spans="1:15">
       <c r="A18" s="11" t="s">
         <v>104</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" ht="14.25" spans="1:15">
+    <row r="19" ht="15" spans="1:15">
       <c r="A19" s="11" t="s">
         <v>108</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" ht="14.25" spans="1:15">
+    <row r="20" ht="15" spans="1:15">
       <c r="A20" s="11" t="s">
         <v>112</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" ht="14.25" spans="1:15">
+    <row r="21" ht="15" spans="1:15">
       <c r="A21" s="11" t="s">
         <v>117</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" ht="14.25" spans="1:15">
+    <row r="22" ht="30" spans="1:15">
       <c r="A22" s="11" t="s">
         <v>122</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" ht="14.25" spans="1:15">
+    <row r="23" ht="15" spans="1:15">
       <c r="A23" s="11" t="s">
         <v>127</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="24" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A24" s="11" t="s">
         <v>132</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="25" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A25" s="11" t="s">
         <v>136</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="26" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A26" s="11" t="s">
         <v>140</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="27" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A27" s="11" t="s">
         <v>145</v>
       </c>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="28" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A28" s="11" t="s">
         <v>149</v>
       </c>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="29" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A29" s="11" t="s">
         <v>153</v>
       </c>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="30" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A30" s="11" t="s">
         <v>157</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="31" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A31" s="11" t="s">
         <v>161</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="32" s="3" customFormat="1" ht="15" spans="1:15">
       <c r="A32" s="11" t="s">
         <v>165</v>
       </c>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" ht="14.25" spans="1:15">
+    <row r="33" ht="15" spans="1:15">
       <c r="A33" s="11" t="s">
         <v>170</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" ht="14.25" spans="1:15">
+    <row r="34" ht="15" spans="1:15">
       <c r="A34" s="11" t="s">
         <v>175</v>
       </c>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" ht="14.25" spans="1:15">
+    <row r="35" ht="15" spans="1:15">
       <c r="A35" s="11" t="s">
         <v>178</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" ht="14.25" spans="1:15">
+    <row r="36" ht="15" spans="1:15">
       <c r="A36" s="11" t="s">
         <v>182</v>
       </c>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" ht="14.25" spans="1:15">
+    <row r="37" ht="15" spans="1:15">
       <c r="A37" s="11" t="s">
         <v>187</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" ht="14.25" spans="1:15">
+    <row r="38" ht="15" spans="1:15">
       <c r="A38" s="11" t="s">
         <v>191</v>
       </c>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" ht="28.5" spans="1:15">
+    <row r="39" ht="30" spans="1:15">
       <c r="A39" s="11" t="s">
         <v>195</v>
       </c>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" ht="28.5" spans="1:15">
+    <row r="40" ht="30" spans="1:15">
       <c r="A40" s="11" t="s">
         <v>200</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" ht="14.25" spans="1:15">
+    <row r="41" ht="15" spans="1:15">
       <c r="A41" s="11" t="s">
         <v>205</v>
       </c>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" ht="14.25" spans="1:15">
+    <row r="42" ht="15" spans="1:15">
       <c r="A42" s="11" t="s">
         <v>210</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" ht="14.25" spans="1:15">
+    <row r="43" ht="15" spans="1:15">
       <c r="A43" s="11" t="s">
         <v>214</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" ht="14.25" spans="1:15">
+    <row r="44" ht="15" spans="1:15">
       <c r="A44" s="11" t="s">
         <v>219</v>
       </c>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" ht="14.25" spans="1:15">
+    <row r="45" ht="15" spans="1:15">
       <c r="A45" s="11" t="s">
         <v>223</v>
       </c>
@@ -3764,21 +3764,21 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.7583333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7583333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.87272727272727" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7545454545455" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.3727272727273" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7545454545455" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.2583333333333" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6272727272727" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.6272727272727" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.37272727272727" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.2545454545455" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.1272727272727" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.3727272727273" style="3" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -3980,7 +3980,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="11730"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1797,7 +1797,7 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>

--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
     <t>字段</t>
   </si>
   <si>
-    <t>CourierUnits</t>
+    <t>courier_units</t>
   </si>
   <si>
     <t>type</t>
@@ -1797,7 +1797,7 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -3760,8 +3760,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1797,14 +1797,14 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.8181818181818" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.3727272727273" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
@@ -3760,7 +3760,7 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -111,7 +111,7 @@
     <t>Cluckles the Brave</t>
   </si>
   <si>
-    <t>R</t>
+    <t>B</t>
   </si>
   <si>
     <t>models/items/courier/mighty_chicken/mighty_chicken.vmdl</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Golden Beetlejaws the Boxhound </t>
   </si>
   <si>
-    <t>SSR</t>
+    <t>S</t>
   </si>
   <si>
     <t>models/courier/beetlejaws/mesh/beetlejaws.vmdl</t>
@@ -162,7 +162,7 @@
     <t>Dolfrat and Roshinante</t>
   </si>
   <si>
-    <t>SR</t>
+    <t>A</t>
   </si>
   <si>
     <t>models/courier/donkey_ti7/donkey_ti7.vmdl</t>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E3" s="11" t="str">
         <f t="shared" ref="E3:E31" si="0">"60"&amp;IF(F3="R",1,IF(F3="SR",2,3))*1000+ROW(F3)-2</f>
-        <v>601001</v>
+        <v>603001</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>31</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601002</v>
+        <v>603002</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>31</v>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602004</v>
+        <v>603004</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>48</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602013</v>
+        <v>603013</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>48</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602014</v>
+        <v>603014</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>48</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602015</v>
+        <v>603015</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>48</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="E18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602016</v>
+        <v>603016</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>48</v>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602017</v>
+        <v>603017</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>48</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602018</v>
+        <v>603018</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>48</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602019</v>
+        <v>603019</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>48</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="E22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602020</v>
+        <v>603020</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>48</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="E23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>602021</v>
+        <v>603021</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>48</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601022</v>
+        <v>603022</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>31</v>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="E25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601023</v>
+        <v>603023</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>31</v>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601024</v>
+        <v>603024</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>31</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="E27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601025</v>
+        <v>603025</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>31</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601026</v>
+        <v>603026</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>31</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="E29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601027</v>
+        <v>603027</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>31</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="E30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601028</v>
+        <v>603028</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>31</v>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>601029</v>
+        <v>603029</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>31</v>

--- a/code/excels/units/courier_units.xlsx
+++ b/code/excels/units/courier_units.xlsx
@@ -171,6 +171,357 @@
     <t>modifier_courier_fx_ambient_4</t>
   </si>
   <si>
+    <t>courier_13</t>
+  </si>
+  <si>
+    <t>天照小神</t>
+  </si>
+  <si>
+    <t>Amaterasu</t>
+  </si>
+  <si>
+    <t>models/items/courier/amaterasu/amaterasu.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_13</t>
+  </si>
+  <si>
+    <t>courier_14</t>
+  </si>
+  <si>
+    <t>腥红蝾小螈</t>
+  </si>
+  <si>
+    <t>Crimson Axolotl</t>
+  </si>
+  <si>
+    <t>models/items/courier/axolotl/axolotl.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_14</t>
+  </si>
+  <si>
+    <t>courier_15</t>
+  </si>
+  <si>
+    <t>火焰飞小龙</t>
+  </si>
+  <si>
+    <t>Fire Wyvern Hatchling</t>
+  </si>
+  <si>
+    <t>models/courier/baby_winter_wyvern/baby_winter_wyvern.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_15</t>
+  </si>
+  <si>
+    <t>courier_16</t>
+  </si>
+  <si>
+    <t>寒冰飞小龙</t>
+  </si>
+  <si>
+    <t>Frost Wyvern Hatchling</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_16</t>
+  </si>
+  <si>
+    <t>courier_17</t>
+  </si>
+  <si>
+    <t>蜚廉</t>
+  </si>
+  <si>
+    <t>Masked Fey</t>
+  </si>
+  <si>
+    <t>models/items/courier/fei_lian_blue/fei_lian_blue.vmdl</t>
+  </si>
+  <si>
+    <t>courier_18</t>
+  </si>
+  <si>
+    <t>灵犀弗拉尔</t>
+  </si>
+  <si>
+    <t>Unusual Frull</t>
+  </si>
+  <si>
+    <t>models/courier/frull/frull_courier.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_18</t>
+  </si>
+  <si>
+    <t>courier_19</t>
+  </si>
+  <si>
+    <t>圣盾蟹小蜗</t>
+  </si>
+  <si>
+    <t>Hermes the Hermit Crab</t>
+  </si>
+  <si>
+    <t>models/items/courier/hermit_crab/hermit_crab_aegis.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_19</t>
+  </si>
+  <si>
+    <t>courier_20</t>
+  </si>
+  <si>
+    <t>苦木独小苗</t>
+  </si>
+  <si>
+    <t>Sappler the Eager</t>
+  </si>
+  <si>
+    <t>models/items/courier/little_sappling_style1/little_sappling_style1.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_20</t>
+  </si>
+  <si>
+    <t>courier_21</t>
+  </si>
+  <si>
+    <t>战龟飞船</t>
+  </si>
+  <si>
+    <t>BattleTurtle Airship</t>
+  </si>
+  <si>
+    <t>models/items/courier/nexon_turtle_15_red/nexon_turtle_15_red.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_21</t>
+  </si>
+  <si>
+    <t>courier_22</t>
+  </si>
+  <si>
+    <t>飞掠之翼</t>
+  </si>
+  <si>
+    <t>Atrophic Skitterwing</t>
+  </si>
+  <si>
+    <t>models/items/courier/atrophic_skitterwing/atrophic_skitterwing.vmdl</t>
+  </si>
+  <si>
+    <t>courier_23</t>
+  </si>
+  <si>
+    <t>蔚蓝小龙</t>
+  </si>
+  <si>
+    <t>Blue Dragonling</t>
+  </si>
+  <si>
+    <t>models/items/courier/azuremircourierfinal/azuremircourierfinal.vmdl</t>
+  </si>
+  <si>
+    <t>courier_24</t>
+  </si>
+  <si>
+    <t>白小虎</t>
+  </si>
+  <si>
+    <t>Baekho</t>
+  </si>
+  <si>
+    <t>models/items/courier/baekho/baekho.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_24</t>
+  </si>
+  <si>
+    <t>courier_25</t>
+  </si>
+  <si>
+    <t>八小戒</t>
+  </si>
+  <si>
+    <t>Bajie the Silken Swineling</t>
+  </si>
+  <si>
+    <t>models/items/courier/bajie_pig/bajie_pig.vmdl</t>
+  </si>
+  <si>
+    <t>courier_26</t>
+  </si>
+  <si>
+    <t>海狸勇士</t>
+  </si>
+  <si>
+    <t>Beaver Knight</t>
+  </si>
+  <si>
+    <t>models/items/courier/beaverknight_s2/beaverknight_s2.vmdl</t>
+  </si>
+  <si>
+    <t>courier_27</t>
+  </si>
+  <si>
+    <t>老绅士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elder Gentleman </t>
+  </si>
+  <si>
+    <t>models/items/courier/blotto_and_stick/blotto.vmdl</t>
+  </si>
+  <si>
+    <t>courier_28</t>
+  </si>
+  <si>
+    <t>伐士奇</t>
+  </si>
+  <si>
+    <t>Boris Baumhauer</t>
+  </si>
+  <si>
+    <t>models/items/courier/boris_baumhauer/boris_baumhauer.vmdl</t>
+  </si>
+  <si>
+    <t>courier_29</t>
+  </si>
+  <si>
+    <t>勇士欢欢</t>
+  </si>
+  <si>
+    <t>Coco the Courageous</t>
+  </si>
+  <si>
+    <t>models/items/courier/coco_the_courageous/coco_the_courageous.vmdl</t>
+  </si>
+  <si>
+    <t>courier_32</t>
+  </si>
+  <si>
+    <t>时尚赏小金</t>
+  </si>
+  <si>
+    <t>Fashion Huntling</t>
+  </si>
+  <si>
+    <t>models/courier/huntling/huntling.vmdl</t>
+  </si>
+  <si>
+    <t>courier_33</t>
+  </si>
+  <si>
+    <t>皇家小狮鹫</t>
+  </si>
+  <si>
+    <t>Royal Griffinling</t>
+  </si>
+  <si>
+    <t>models/items/courier/royal_griffin_cub/royal_griffin_cub.vmdl</t>
+  </si>
+  <si>
+    <t>courier_35</t>
+  </si>
+  <si>
+    <t>玉角羊咩咩</t>
+  </si>
+  <si>
+    <t>Jade Horn</t>
+  </si>
+  <si>
+    <t>models/courier/ram/ram.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_33</t>
+  </si>
+  <si>
+    <t>courier_36</t>
+  </si>
+  <si>
+    <t>赤角羊咩咩</t>
+  </si>
+  <si>
+    <t>Red Horn</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_34</t>
+  </si>
+  <si>
+    <t>courier_38</t>
+  </si>
+  <si>
+    <t>灵动虎小喵</t>
+  </si>
+  <si>
+    <t>Swift Cub</t>
+  </si>
+  <si>
+    <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant_lvl6/courier_ti10_radiant_lvl6.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_38</t>
+  </si>
+  <si>
+    <t>courier_39</t>
+  </si>
+  <si>
+    <t>虎小喵</t>
+  </si>
+  <si>
+    <t>Cub</t>
+  </si>
+  <si>
+    <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_39</t>
+  </si>
+  <si>
+    <t>courier_41</t>
+  </si>
+  <si>
+    <t>老司机矿车鼠</t>
+  </si>
+  <si>
+    <t>Expert Dolfrat and Roshinante</t>
+  </si>
+  <si>
+    <t>models/items/courier/mole_messenger/mole_messenger_lvl6.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_41</t>
+  </si>
+  <si>
+    <t>courier_42</t>
+  </si>
+  <si>
+    <t>矿车鼠</t>
+  </si>
+  <si>
+    <t>models/items/courier/mole_messenger/mole_messenger.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_42</t>
+  </si>
+  <si>
+    <t>courier_43</t>
+  </si>
+  <si>
+    <t>纯金矿车鼠</t>
+  </si>
+  <si>
+    <t>Golden Dolfrat and Roshinante</t>
+  </si>
+  <si>
+    <t>models/items/courier/mole_messenger/mole_messenger_lvl7.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_43</t>
+  </si>
+  <si>
     <t>courier_5</t>
   </si>
   <si>
@@ -180,9 +531,6 @@
     <t>Golden Axolotl</t>
   </si>
   <si>
-    <t>models/items/courier/axolotl/axolotl.vmdl</t>
-  </si>
-  <si>
     <t>modifier_courier_fx_ambient_5</t>
   </si>
   <si>
@@ -195,9 +543,6 @@
     <t>Golden Wyvern Hatchling</t>
   </si>
   <si>
-    <t>models/courier/baby_winter_wyvern/baby_winter_wyvern.vmdl</t>
-  </si>
-  <si>
     <t>modifier_courier_fx_ambient_6</t>
   </si>
   <si>
@@ -291,226 +636,31 @@
     <t>modifier_courier_fx_ambient_12</t>
   </si>
   <si>
-    <t>courier_13</t>
-  </si>
-  <si>
-    <t>天照小神</t>
-  </si>
-  <si>
-    <t>Amaterasu</t>
-  </si>
-  <si>
-    <t>models/items/courier/amaterasu/amaterasu.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_13</t>
-  </si>
-  <si>
-    <t>courier_14</t>
-  </si>
-  <si>
-    <t>腥红蝾小螈</t>
-  </si>
-  <si>
-    <t>Crimson Axolotl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_14</t>
-  </si>
-  <si>
-    <t>courier_15</t>
-  </si>
-  <si>
-    <t>火焰飞小龙</t>
-  </si>
-  <si>
-    <t>Fire Wyvern Hatchling</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_15</t>
-  </si>
-  <si>
-    <t>courier_16</t>
-  </si>
-  <si>
-    <t>寒冰飞小龙</t>
-  </si>
-  <si>
-    <t>Frost Wyvern Hatchling</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_16</t>
-  </si>
-  <si>
-    <t>courier_17</t>
-  </si>
-  <si>
-    <t>蜚廉</t>
-  </si>
-  <si>
-    <t>Masked Fey</t>
-  </si>
-  <si>
-    <t>models/items/courier/fei_lian_blue/fei_lian_blue.vmdl</t>
-  </si>
-  <si>
-    <t>courier_18</t>
-  </si>
-  <si>
-    <t>灵犀弗拉尔</t>
-  </si>
-  <si>
-    <t>Unusual Frull</t>
-  </si>
-  <si>
-    <t>models/courier/frull/frull_courier.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_18</t>
-  </si>
-  <si>
-    <t>courier_19</t>
-  </si>
-  <si>
-    <t>圣盾蟹小蜗</t>
-  </si>
-  <si>
-    <t>Hermes the Hermit Crab</t>
-  </si>
-  <si>
-    <t>models/items/courier/hermit_crab/hermit_crab_aegis.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_19</t>
-  </si>
-  <si>
-    <t>courier_20</t>
-  </si>
-  <si>
-    <t>苦木独小苗</t>
-  </si>
-  <si>
-    <t>Sappler the Eager</t>
-  </si>
-  <si>
-    <t>models/items/courier/little_sappling_style1/little_sappling_style1.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_20</t>
-  </si>
-  <si>
-    <t>courier_21</t>
-  </si>
-  <si>
-    <t>战龟飞船</t>
-  </si>
-  <si>
-    <t>BattleTurtle Airship</t>
-  </si>
-  <si>
-    <t>models/items/courier/nexon_turtle_15_red/nexon_turtle_15_red.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_21</t>
-  </si>
-  <si>
-    <t>courier_22</t>
-  </si>
-  <si>
-    <t>飞掠之翼</t>
-  </si>
-  <si>
-    <t>Atrophic Skitterwing</t>
-  </si>
-  <si>
-    <t>models/items/courier/atrophic_skitterwing/atrophic_skitterwing.vmdl</t>
-  </si>
-  <si>
-    <t>courier_23</t>
-  </si>
-  <si>
-    <t>蔚蓝小龙</t>
-  </si>
-  <si>
-    <t>Blue Dragonling</t>
-  </si>
-  <si>
-    <t>models/items/courier/azuremircourierfinal/azuremircourierfinal.vmdl</t>
-  </si>
-  <si>
-    <t>courier_24</t>
-  </si>
-  <si>
-    <t>白小虎</t>
-  </si>
-  <si>
-    <t>Baekho</t>
-  </si>
-  <si>
-    <t>models/items/courier/baekho/baekho.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_24</t>
-  </si>
-  <si>
-    <t>courier_25</t>
-  </si>
-  <si>
-    <t>八小戒</t>
-  </si>
-  <si>
-    <t>Bajie the Silken Swineling</t>
-  </si>
-  <si>
-    <t>models/items/courier/bajie_pig/bajie_pig.vmdl</t>
-  </si>
-  <si>
-    <t>courier_26</t>
-  </si>
-  <si>
-    <t>海狸勇士</t>
-  </si>
-  <si>
-    <t>Beaver Knight</t>
-  </si>
-  <si>
-    <t>models/items/courier/beaverknight_s2/beaverknight_s2.vmdl</t>
-  </si>
-  <si>
-    <t>courier_27</t>
-  </si>
-  <si>
-    <t>老绅士</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elder Gentleman </t>
-  </si>
-  <si>
-    <t>models/items/courier/blotto_and_stick/blotto.vmdl</t>
-  </si>
-  <si>
-    <t>courier_28</t>
-  </si>
-  <si>
-    <t>伐士奇</t>
-  </si>
-  <si>
-    <t>Boris Baumhauer</t>
-  </si>
-  <si>
-    <t>models/items/courier/boris_baumhauer/boris_baumhauer.vmdl</t>
-  </si>
-  <si>
-    <t>courier_29</t>
-  </si>
-  <si>
-    <t>勇士欢欢</t>
-  </si>
-  <si>
-    <t>Coco the Courageous</t>
-  </si>
-  <si>
-    <t>models/items/courier/coco_the_courageous/coco_the_courageous.vmdl</t>
+    <t>courier_40</t>
+  </si>
+  <si>
+    <t>纯金贪小魔</t>
+  </si>
+  <si>
+    <t>Golden Greedling</t>
+  </si>
+  <si>
+    <t>models/courier/greevil/gold_greevil.vmdl</t>
+  </si>
+  <si>
+    <t>courier_37</t>
+  </si>
+  <si>
+    <t>纯金虎小喵</t>
+  </si>
+  <si>
+    <t>Golden Cub</t>
+  </si>
+  <si>
+    <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant_lvl7/courier_ti10_radiant_lvl7.vmdl</t>
+  </si>
+  <si>
+    <t>modifier_courier_fx_ambient_37</t>
   </si>
   <si>
     <t>courier_30</t>
@@ -537,33 +687,9 @@
     <t xml:space="preserve">Golden Huntling </t>
   </si>
   <si>
-    <t>models/courier/huntling/huntling.vmdl</t>
-  </si>
-  <si>
     <t>modifier_courier_fx_ambient_31</t>
   </si>
   <si>
-    <t>courier_32</t>
-  </si>
-  <si>
-    <t>时尚赏小金</t>
-  </si>
-  <si>
-    <t>Fashion Huntling</t>
-  </si>
-  <si>
-    <t>courier_33</t>
-  </si>
-  <si>
-    <t>皇家小狮鹫</t>
-  </si>
-  <si>
-    <t>Royal Griffinling</t>
-  </si>
-  <si>
-    <t>models/items/courier/royal_griffin_cub/royal_griffin_cub.vmdl</t>
-  </si>
-  <si>
     <t>courier_34</t>
   </si>
   <si>
@@ -573,133 +699,7 @@
     <t>Golen Horn</t>
   </si>
   <si>
-    <t>models/courier/ram/ram.vmdl</t>
-  </si>
-  <si>
     <t>modifier_courier_fx_ambient_32</t>
-  </si>
-  <si>
-    <t>courier_35</t>
-  </si>
-  <si>
-    <t>玉角羊咩咩</t>
-  </si>
-  <si>
-    <t>Jade Horn</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_33</t>
-  </si>
-  <si>
-    <t>courier_36</t>
-  </si>
-  <si>
-    <t>赤角羊咩咩</t>
-  </si>
-  <si>
-    <t>Red Horn</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_34</t>
-  </si>
-  <si>
-    <t>courier_37</t>
-  </si>
-  <si>
-    <t>纯金虎小喵</t>
-  </si>
-  <si>
-    <t>Golden Cub</t>
-  </si>
-  <si>
-    <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant_lvl7/courier_ti10_radiant_lvl7.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_37</t>
-  </si>
-  <si>
-    <t>courier_38</t>
-  </si>
-  <si>
-    <t>灵动虎小喵</t>
-  </si>
-  <si>
-    <t>Swift Cub</t>
-  </si>
-  <si>
-    <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant_lvl6/courier_ti10_radiant_lvl6.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_38</t>
-  </si>
-  <si>
-    <t>courier_39</t>
-  </si>
-  <si>
-    <t>虎小喵</t>
-  </si>
-  <si>
-    <t>Cub</t>
-  </si>
-  <si>
-    <t>models/items/courier/courier_ti10_radiant/courier_ti10_radiant.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_39</t>
-  </si>
-  <si>
-    <t>courier_40</t>
-  </si>
-  <si>
-    <t>纯金贪小魔</t>
-  </si>
-  <si>
-    <t>Golden Greedling</t>
-  </si>
-  <si>
-    <t>models/courier/greevil/gold_greevil.vmdl</t>
-  </si>
-  <si>
-    <t>courier_41</t>
-  </si>
-  <si>
-    <t>老司机矿车鼠</t>
-  </si>
-  <si>
-    <t>Expert Dolfrat and Roshinante</t>
-  </si>
-  <si>
-    <t>models/items/courier/mole_messenger/mole_messenger_lvl6.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_41</t>
-  </si>
-  <si>
-    <t>courier_42</t>
-  </si>
-  <si>
-    <t>矿车鼠</t>
-  </si>
-  <si>
-    <t>models/items/courier/mole_messenger/mole_messenger.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_42</t>
-  </si>
-  <si>
-    <t>courier_43</t>
-  </si>
-  <si>
-    <t>纯金矿车鼠</t>
-  </si>
-  <si>
-    <t>Golden Dolfrat and Roshinante</t>
-  </si>
-  <si>
-    <t>models/items/courier/mole_messenger/mole_messenger_lvl7.vmdl</t>
-  </si>
-  <si>
-    <t>modifier_courier_fx_ambient_43</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1394,7 +1394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,10 +1424,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1797,22 +1806,22 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.8181818181818" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.3727272727273" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.9090909090909" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.9090909090909" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="7.37272727272727" style="5" customWidth="1"/>
-    <col min="7" max="7" width="75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="82.0909090909091" style="10" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="5" customWidth="1"/>
-    <col min="9" max="11" width="19.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.2545454545455" style="10" customWidth="1"/>
+    <col min="9" max="11" width="19.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.2545454545455" style="11" customWidth="1"/>
     <col min="13" max="13" width="36.5454545454545" style="3" customWidth="1"/>
     <col min="14" max="14" width="27.0909090909091" style="3" customWidth="1"/>
     <col min="15" max="15" width="20.6272727272727" style="3" customWidth="1"/>
@@ -1838,7 +1847,7 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1885,7 +1894,7 @@
       <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1914,7 +1923,7 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="15" spans="1:15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1926,35 +1935,35 @@
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="11" t="str">
-        <f t="shared" ref="E3:E31" si="0">"60"&amp;IF(F3="R",1,IF(F3="SR",2,3))*1000+ROW(F3)-2</f>
+      <c r="E3" s="13" t="str">
+        <f>"60"&amp;IF(F3="R",1,IF(F3="SR",2,3))*1000+ROW(F3)-2</f>
         <v>603001</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
         <v>10147</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="13"/>
+      <c r="N3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1966,33 +1975,33 @@
       <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" s="13" t="str">
+        <f>"60"&amp;IF(F4="R",1,IF(F4="SR",2,3))*1000+ROW(F4)-2</f>
         <v>603002</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
         <v>10200</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="13"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16">
+        <v>1</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2004,37 +2013,37 @@
       <c r="D5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" s="13" t="str">
+        <f>"60"&amp;IF(F5="R",1,IF(F5="SR",2,3))*1000+ROW(F5)-2</f>
         <v>603003</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
         <v>11643</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="13"/>
+      <c r="N5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" ht="15" spans="1:15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2046,35 +2055,35 @@
       <c r="D6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="13" t="str">
+        <f>"60"&amp;IF(F6="R",1,IF(F6="SR",2,3))*1000+ROW(F6)-2</f>
         <v>603004</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13">
         <v>12147</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13">
-        <v>1</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="13"/>
+      <c r="N6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" ht="15" spans="1:15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2086,39 +2095,35 @@
       <c r="D7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="E7" s="13" t="str">
+        <f t="shared" ref="E7:E23" si="0">"60"&amp;IF(F7="R",1,IF(F7="SR",2,3))*1000+ROW(F7)-2</f>
         <v>603005</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="11">
-        <v>3</v>
-      </c>
-      <c r="I7" s="11">
-        <v>10920</v>
-      </c>
-      <c r="J7" s="12">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13">
+        <v>17257</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="13"/>
+      <c r="N7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" ht="15" spans="1:15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2130,39 +2135,39 @@
       <c r="D8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603006</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="13">
         <v>2</v>
       </c>
-      <c r="I8" s="11">
-        <v>11321</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="I8" s="13">
+        <v>10920</v>
+      </c>
+      <c r="J8" s="15">
         <v>2</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="K8" s="15"/>
+      <c r="L8" s="16">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="30" spans="1:15">
-      <c r="A9" s="11" t="s">
+      <c r="N8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" ht="15" spans="1:15">
+      <c r="A9" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2174,37 +2179,39 @@
       <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603007</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11">
-        <v>12962</v>
-      </c>
-      <c r="J9" s="12">
-        <v>6</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>11321</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A10" s="11" t="s">
+      <c r="N9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" ht="15" spans="1:15">
+      <c r="A10" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2216,1145 +2223,1146 @@
       <c r="D10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603008</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
+        <v>11321</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>11764</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" ht="15" spans="1:15">
+      <c r="A11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="11" t="str">
+        <v>71</v>
+      </c>
+      <c r="E11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603009</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>11143</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" ht="15" spans="1:15">
+      <c r="A12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>10702</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="11" t="str">
+        <v>75</v>
+      </c>
+      <c r="E12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603010</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <v>10527</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" ht="15" spans="1:15">
+      <c r="A13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
-        <v>10993</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13">
-        <v>1</v>
-      </c>
-      <c r="M12" s="12" t="s">
+      <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" ht="15" spans="1:15">
-      <c r="A13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="11" t="str">
+        <v>80</v>
+      </c>
+      <c r="E13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603011</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <v>11997</v>
+      </c>
+      <c r="J13" s="15">
+        <v>8</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" ht="15" spans="1:15">
+      <c r="A14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11">
-        <v>11740</v>
-      </c>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="B14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" ht="15" spans="1:15">
-      <c r="A14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="11" t="str">
+        <v>85</v>
+      </c>
+      <c r="E14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603012</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="13">
+        <v>11965</v>
+      </c>
+      <c r="J14" s="15">
+        <v>3</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" ht="15" spans="1:15">
+      <c r="A15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
-        <v>11092</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13">
-        <v>1</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="B15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" ht="15" spans="1:15">
-      <c r="A15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="11" t="str">
+        <v>90</v>
+      </c>
+      <c r="E15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603013</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
+        <v>10918</v>
+      </c>
+      <c r="J15" s="15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A16" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11">
-        <v>17257</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="B16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" ht="15" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="11" t="str">
+        <v>95</v>
+      </c>
+      <c r="E16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603014</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="11">
-        <v>2</v>
-      </c>
-      <c r="I16" s="11">
-        <v>10920</v>
-      </c>
-      <c r="J16" s="12">
-        <v>2</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13">
-        <v>1</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="F16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13">
+        <v>11553</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" ht="15" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="11" t="str">
+        <v>99</v>
+      </c>
+      <c r="E17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603015</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
-        <v>11321</v>
-      </c>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="F17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
+        <v>10338</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15">
+        <v>25</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" ht="15" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="11" t="str">
+        <v>103</v>
+      </c>
+      <c r="E18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603016</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11">
-        <v>11321</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13">
-        <v>1</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="F18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
+        <v>10347</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16">
+        <v>1</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="N18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" ht="15" spans="1:15">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="11" t="str">
+        <v>108</v>
+      </c>
+      <c r="E19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603017</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>11111</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A20" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="11">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11">
-        <v>11143</v>
-      </c>
-      <c r="J19" s="12">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13">
-        <v>1</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" ht="15" spans="1:15">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="11" t="str">
+        <v>112</v>
+      </c>
+      <c r="E20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603018</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
+        <v>10524</v>
+      </c>
+      <c r="J20" s="15">
+        <v>2</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16">
+        <v>1</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11">
-        <v>10527</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13">
-        <v>1</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="B21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" ht="15" spans="1:15">
-      <c r="A21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="11" t="str">
+        <v>116</v>
+      </c>
+      <c r="E21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603019</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <v>10297</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16">
+        <v>1</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A22" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11">
-        <v>11997</v>
-      </c>
-      <c r="J21" s="12">
-        <v>8</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13">
-        <v>1</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="C22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N21" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" ht="30" spans="1:15">
-      <c r="A22" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="11" t="str">
+        <v>120</v>
+      </c>
+      <c r="E22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603020</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="F22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13">
+        <v>10360</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="11">
-        <v>3</v>
-      </c>
-      <c r="I22" s="11">
-        <v>11965</v>
-      </c>
-      <c r="J22" s="12">
-        <v>3</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13">
-        <v>1</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" ht="15" spans="1:15">
-      <c r="A23" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="11" t="str">
+        <v>124</v>
+      </c>
+      <c r="E23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>603021</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13">
+        <v>10375</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" ht="15" spans="1:15">
+      <c r="A24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="13">
+        <v>602001</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G24" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11">
-        <v>10918</v>
-      </c>
-      <c r="J23" s="12">
-        <v>15</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13">
-        <v>1</v>
-      </c>
-      <c r="M23" s="12" t="s">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>11521</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" ht="15" spans="1:15">
+      <c r="A25" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="N23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A24" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="13">
+        <v>601003</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603022</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="15">
+        <v>10599</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16">
+        <v>1</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" ht="15" spans="1:15">
+      <c r="A26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="13">
+        <v>602002</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <v>11126</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" ht="15" spans="1:15">
+      <c r="A27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="13">
+        <v>601004</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11">
-        <v>11553</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13">
-        <v>1</v>
-      </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A25" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="G27" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603023</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>11125</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" ht="30" spans="1:15">
+      <c r="A28" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="13">
+        <v>602003</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>13775</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" ht="15" spans="1:15">
+      <c r="A29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="13">
+        <v>601005</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11">
-        <v>10338</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12">
-        <v>25</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1</v>
-      </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A26" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603024</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="G29" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>13775</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16">
+        <v>1</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" ht="15" spans="1:15">
+      <c r="A30" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="13">
+        <v>602005</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>12191</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16">
+        <v>1</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" ht="15" spans="1:15">
+      <c r="A31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="13">
+        <v>601006</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11">
-        <v>10347</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13">
-        <v>1</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603025</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11">
-        <v>11111</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13">
-        <v>1</v>
-      </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A28" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603026</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11">
-        <v>10524</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="G31" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>12191</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="16">
+        <v>1</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" ht="15" spans="1:15">
+      <c r="A32" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="13">
+        <v>603018</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="13">
+        <v>6</v>
+      </c>
+      <c r="I32" s="13">
+        <v>12191</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="16">
+        <v>1</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" ht="15" spans="1:15">
+      <c r="A33" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="13" t="str">
+        <f>"60"&amp;IF(F33="R",1,IF(F33="SR",2,3))*1000+ROW(F33)-2</f>
+        <v>603031</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="13">
+        <v>3</v>
+      </c>
+      <c r="I33" s="13">
+        <v>10920</v>
+      </c>
+      <c r="J33" s="15">
+        <v>3</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16">
+        <v>1</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" ht="15" spans="1:15">
+      <c r="A34" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="13" t="str">
+        <f>"60"&amp;IF(F34="R",1,IF(F34="SR",2,3))*1000+ROW(F34)-2</f>
+        <v>603032</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="13">
         <v>2</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13">
-        <v>1</v>
-      </c>
-      <c r="M28" s="12"/>
-      <c r="N28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A29" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603027</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11">
-        <v>10297</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13">
-        <v>1</v>
-      </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A30" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603028</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11">
-        <v>10360</v>
-      </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13">
-        <v>1</v>
-      </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A31" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>603029</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
-        <v>10375</v>
-      </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13">
-        <v>1</v>
-      </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="15" spans="1:15">
-      <c r="A32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="11">
-        <v>603013</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="I34" s="13">
+        <v>11321</v>
+      </c>
+      <c r="J34" s="15">
+        <v>2</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="16">
+        <v>1</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A35" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="13" t="str">
+        <f>"60"&amp;IF(F35="R",1,IF(F35="SR",2,3))*1000+ROW(F35)-2</f>
+        <v>603033</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="11">
-        <v>2</v>
-      </c>
-      <c r="I32" s="11">
-        <v>11865</v>
-      </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13">
-        <v>1</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" ht="15" spans="1:15">
-      <c r="A33" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="11">
-        <v>603014</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="G35" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13">
+        <v>12962</v>
+      </c>
+      <c r="J35" s="15">
+        <v>6</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="16">
+        <v>1</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A36" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="13" t="str">
+        <f>"60"&amp;IF(F36="R",1,IF(F36="SR",2,3))*1000+ROW(F36)-2</f>
+        <v>603034</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-      <c r="I33" s="11">
-        <v>11522</v>
-      </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="13">
-        <v>1</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" ht="15" spans="1:15">
-      <c r="A34" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="11">
-        <v>602001</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>11521</v>
-      </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13">
-        <v>1</v>
-      </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" ht="15" spans="1:15">
-      <c r="A35" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="11">
-        <v>601003</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12">
-        <v>10599</v>
-      </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13">
-        <v>1</v>
-      </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" ht="15" spans="1:15">
-      <c r="A36" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="G36" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="11">
-        <v>603015</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13">
+        <v>11764</v>
+      </c>
+      <c r="J36" s="15">
+        <v>1</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="16">
+        <v>1</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A37" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="13" t="str">
+        <f>"60"&amp;IF(F37="R",1,IF(F37="SR",2,3))*1000+ROW(F37)-2</f>
+        <v>603035</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H36" s="11">
-        <v>2</v>
-      </c>
-      <c r="I36" s="11">
-        <v>11127</v>
-      </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13">
-        <v>1</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" ht="15" spans="1:15">
-      <c r="A37" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="G37" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="11">
-        <v>602002</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="11">
-        <v>11126</v>
-      </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13">
-        <v>1</v>
-      </c>
-      <c r="M37" s="12" t="s">
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="13">
+        <v>10702</v>
+      </c>
+      <c r="J37" s="15">
+        <v>1</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="16">
+        <v>1</v>
+      </c>
+      <c r="M37" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="N37" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" ht="15" spans="1:15">
-      <c r="A38" s="11" t="s">
+      <c r="N37" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A38" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3366,163 +3374,166 @@
       <c r="D38" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E38" s="11">
-        <v>601004</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38" s="11">
+      <c r="E38" s="13" t="str">
+        <f>"60"&amp;IF(F38="R",1,IF(F38="SR",2,3))*1000+ROW(F38)-2</f>
+        <v>603036</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="13">
+        <v>10993</v>
+      </c>
+      <c r="J38" s="15">
+        <v>1</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16">
+        <v>1</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" ht="15" spans="1:15">
+      <c r="A39" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="13" t="str">
+        <f>"60"&amp;IF(F39="R",1,IF(F39="SR",2,3))*1000+ROW(F39)-2</f>
+        <v>603037</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+      <c r="I39" s="13">
+        <v>11740</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="16">
+        <v>1</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" ht="15" spans="1:15">
+      <c r="A40" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="13" t="str">
+        <f>"60"&amp;IF(F40="R",1,IF(F40="SR",2,3))*1000+ROW(F40)-2</f>
+        <v>603038</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="13">
+        <v>11092</v>
+      </c>
+      <c r="J40" s="15">
+        <v>1</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="16">
+        <v>1</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" ht="15" spans="1:15">
+      <c r="A41" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="13">
+        <v>603017</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>11125</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13">
-        <v>1</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" ht="30" spans="1:15">
-      <c r="A39" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="11">
-        <v>603016</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>13775</v>
-      </c>
-      <c r="J39" s="12">
-        <v>6</v>
-      </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="13">
-        <v>1</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" ht="30" spans="1:15">
-      <c r="A40" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="11">
-        <v>602003</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>13775</v>
-      </c>
-      <c r="J40" s="12">
-        <v>5</v>
-      </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13">
-        <v>1</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" ht="15" spans="1:15">
-      <c r="A41" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="11">
-        <v>601005</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>13775</v>
-      </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13">
-        <v>1</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" ht="15" spans="1:15">
-      <c r="A42" s="11" t="s">
+      <c r="I41" s="13">
+        <v>10143</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="16">
+        <v>1</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" ht="19" customHeight="1" spans="1:15">
+      <c r="A42" s="13" t="s">
         <v>210</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3534,220 +3545,218 @@
       <c r="D42" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="11">
-        <v>603017</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="E42" s="13">
+        <v>603016</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="13">
         <v>0</v>
       </c>
-      <c r="I42" s="11">
-        <v>10143</v>
-      </c>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="13">
-        <v>1</v>
-      </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" ht="15" spans="1:15">
-      <c r="A43" s="11" t="s">
+      <c r="I42" s="13">
+        <v>13775</v>
+      </c>
+      <c r="J42" s="15">
+        <v>6</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="16">
+        <v>1</v>
+      </c>
+      <c r="M42" s="15" t="s">
         <v>214</v>
       </c>
+      <c r="N42" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="15" spans="1:15">
+      <c r="A43" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="B43" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" s="11">
-        <v>602005</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>12191</v>
-      </c>
-      <c r="J43" s="12">
-        <v>5</v>
-      </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13">
-        <v>1</v>
-      </c>
-      <c r="M43" s="12" t="s">
+      <c r="E43" s="13">
+        <v>603013</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="N43" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O43" s="12"/>
+      <c r="H43" s="13">
+        <v>2</v>
+      </c>
+      <c r="I43" s="13">
+        <v>11865</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="16">
+        <v>1</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="15"/>
     </row>
     <row r="44" ht="15" spans="1:15">
-      <c r="A44" s="11" t="s">
-        <v>219</v>
+      <c r="A44" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="11">
-        <v>601006</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>12191</v>
-      </c>
-      <c r="J44" s="12">
-        <v>0</v>
-      </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13">
-        <v>1</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O44" s="12"/>
+      <c r="E44" s="13">
+        <v>603014</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="13">
+        <v>1</v>
+      </c>
+      <c r="I44" s="13">
+        <v>11522</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="16">
+        <v>1</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="15"/>
     </row>
     <row r="45" ht="15" spans="1:15">
-      <c r="A45" s="11" t="s">
-        <v>223</v>
+      <c r="A45" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E45" s="11">
-        <v>603018</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="E45" s="13">
+        <v>603015</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H45" s="11">
-        <v>6</v>
-      </c>
-      <c r="I45" s="11">
-        <v>12191</v>
-      </c>
-      <c r="J45" s="12">
-        <v>6</v>
-      </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="13">
-        <v>1</v>
-      </c>
-      <c r="M45" s="12" t="s">
+      <c r="G45" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="13">
+        <v>2</v>
+      </c>
+      <c r="I45" s="13">
+        <v>11127</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="16">
+        <v>1</v>
+      </c>
+      <c r="M45" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N45" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O45" s="12"/>
+      <c r="N45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E45">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A31">
+  <conditionalFormatting sqref="A3:A23 A33:A40">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E32">
+  <conditionalFormatting sqref="A3:A24 A26 A28 A30 A43 A33:A40">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E23 E33:E40 E43">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A32 A34 A37 A40 A43">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32 A34 A37 A40 A43">
+  <conditionalFormatting sqref="A24 A26 A28 A43 A30">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33 A35:A36 A38:A39 A41 A44">
+  <conditionalFormatting sqref="A25 A27 A29 A44:A45 A42 A31">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A45">
+  <conditionalFormatting sqref="A32 A41">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
